--- a/file_crawler_project/file_crawler_results.xlsx
+++ b/file_crawler_project/file_crawler_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="174">
   <si>
     <t>Root Folder</t>
   </si>
@@ -1004,7 +1004,7 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>89548752</v>
+        <v>89548806</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1144,7 +1144,7 @@
         <v>33</v>
       </c>
       <c r="D13">
-        <v>883886</v>
+        <v>884158</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
@@ -1764,7 +1764,7 @@
         <v>87</v>
       </c>
       <c r="D44">
-        <v>18447</v>
+        <v>18438</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
@@ -2965,7 +2965,7 @@
         <v>20</v>
       </c>
       <c r="D54">
-        <v>13607652</v>
+        <v>13607706</v>
       </c>
       <c r="E54" t="s">
         <v>132</v>
@@ -3485,7 +3485,7 @@
         <v>87</v>
       </c>
       <c r="D80">
-        <v>18447</v>
+        <v>18438</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
@@ -4301,7 +4301,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4331,11 +4331,14 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4343,13 +4346,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4357,13 +4360,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4371,13 +4374,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4385,13 +4388,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4399,13 +4402,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4413,13 +4416,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6431</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4427,13 +4430,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D9">
-        <v>6431</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4441,13 +4444,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D10">
-        <v>1886</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4455,13 +4458,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>2784</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4469,26 +4472,12 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="D12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13">
         <v>1</v>
       </c>
     </row>
